--- a/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -145,7 +145,7 @@
     <t>患者への注射薬剤投与記録</t>
   </si>
   <si>
-    <t>患者が薬剤を服用する、あるいは投与される事象を説明します。これは、錠剤を飲むだけだったり、長時間の点滴だったりすることがあります。関連するリソースは、この事象を許可された処方箋や、患者と医療従事者の具体的な出会いと結びつけます。</t>
+    <t>患者が薬剤を服用する、あるいは投与される事象を説明します。これは、錠剤を飲むだけだったり、長時間の点滴だったりすることがあります。関連するリソースは、この事象を許可された処方箋や、患者と医療従事者の具体的なEncounter（診察、受診、入退院など）と結びつけます。</t>
   </si>
   <si>
     <t>dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}
@@ -536,7 +536,7 @@
     <t>MedicationAdministration.identifier.use</t>
   </si>
   <si>
-    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
+    <t>通常|公式|一時的|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
   </si>
   <si>
     <t>この識別子の目的。 / The purpose of this identifier.</t>
